--- a/results/primer/VanillaCompartment-SIR-Lockdown_Scenario0_Primer_200_gamma.xlsx
+++ b/results/primer/VanillaCompartment-SIR-Lockdown_Scenario0_Primer_200_gamma.xlsx
@@ -19,46 +19,46 @@
     <t>beta-mean</t>
   </si>
   <si>
+    <t>beta-Q99.85</t>
+  </si>
+  <si>
+    <t>beta-Q0.15</t>
+  </si>
+  <si>
     <t>beta-Q97.5</t>
   </si>
   <si>
     <t>beta-Q2.5</t>
   </si>
   <si>
-    <t>beta-Q83.5</t>
-  </si>
-  <si>
-    <t>beta-Q15.5</t>
-  </si>
-  <si>
     <t>gamma-inv-mean</t>
   </si>
   <si>
+    <t>gamma-inv-Q99.85</t>
+  </si>
+  <si>
+    <t>gamma-inv-Q0.15</t>
+  </si>
+  <si>
     <t>gamma-inv-Q97.5</t>
   </si>
   <si>
     <t>gamma-inv-Q2.5</t>
   </si>
   <si>
-    <t>gamma-inv-Q83.5</t>
-  </si>
-  <si>
-    <t>gamma-inv-Q15.5</t>
-  </si>
-  <si>
     <t>R_0-mean</t>
   </si>
   <si>
+    <t>R_0-Q99.85</t>
+  </si>
+  <si>
+    <t>R_0-Q0.15</t>
+  </si>
+  <si>
     <t>R_0-Q97.5</t>
   </si>
   <si>
     <t>R_0-Q2.5</t>
-  </si>
-  <si>
-    <t>R_0-Q83.5</t>
-  </si>
-  <si>
-    <t>R_0-Q15.5</t>
   </si>
   <si>
     <t>t_c-mean</t>
@@ -535,19 +535,19 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2">
-        <v>0.01701768447184105</v>
+        <v>0.01699266778906125</v>
       </c>
       <c r="B2">
-        <v>0.03527317556842433</v>
+        <v>0.05815991952642417</v>
       </c>
       <c r="C2">
-        <v>0.01237282092571372</v>
+        <v>0.01236730922253293</v>
       </c>
       <c r="D2">
-        <v>0.02134272457762561</v>
+        <v>0.03548562288533571</v>
       </c>
       <c r="E2">
-        <v>0.01256201109615788</v>
+        <v>0.01237285828458737</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -565,64 +565,64 @@
         <v>7</v>
       </c>
       <c r="K2">
-        <v>2.311720092698309</v>
+        <v>2.308321770891931</v>
       </c>
       <c r="L2">
-        <v>4.791586589217102</v>
+        <v>7.900572770721138</v>
       </c>
       <c r="M2">
-        <v>1.680751502042401</v>
+        <v>1.680002780028597</v>
       </c>
       <c r="N2">
-        <v>2.899243156180432</v>
+        <v>4.820445905063303</v>
       </c>
       <c r="O2">
-        <v>1.706451515406764</v>
+        <v>1.680756576954856</v>
       </c>
       <c r="P2">
-        <v>80.11878</v>
+        <v>22.05801</v>
       </c>
       <c r="Q2">
-        <v>115.8548815042017</v>
+        <v>33.0310466165008</v>
       </c>
       <c r="R2">
-        <v>26.80802521258536</v>
+        <v>20.6022145528127</v>
       </c>
       <c r="S2">
-        <v>110.239426161076</v>
+        <v>21.90722209966366</v>
       </c>
       <c r="T2">
-        <v>45.08834597602994</v>
+        <v>20.81856716117012</v>
       </c>
       <c r="U2">
-        <v>0.1407377685554937</v>
+        <v>0.01476519099784013</v>
       </c>
       <c r="V2">
-        <v>0.3679629309610351</v>
+        <v>0.1647404426106872</v>
       </c>
       <c r="W2">
-        <v>0.05568061350038103</v>
+        <v>-0.02657888857105774</v>
       </c>
       <c r="X2">
-        <v>0.2333993543102186</v>
+        <v>0.03430035050650092</v>
       </c>
       <c r="Y2">
-        <v>0.07603731530490092</v>
+        <v>0.01599172507644168</v>
       </c>
       <c r="Z2">
-        <v>0.6654809785834443</v>
+        <v>0.09443046536071475</v>
       </c>
       <c r="AA2">
-        <v>0.9410055539855033</v>
+        <v>0.7713673201754491</v>
       </c>
       <c r="AB2">
-        <v>0.5106811776725706</v>
+        <v>-0.06544959678006702</v>
       </c>
       <c r="AC2">
-        <v>0.8266328933208378</v>
+        <v>0.2457208233553351</v>
       </c>
       <c r="AD2">
-        <v>0.5271061567691858</v>
+        <v>0.04541232790784339</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -642,171 +642,171 @@
         <v>0.01702931493006127</v>
       </c>
       <c r="F3">
-        <v>7.009692657750367</v>
+        <v>7.015777770297272</v>
       </c>
       <c r="G3">
-        <v>9.147632879840453</v>
+        <v>10.64856805821304</v>
       </c>
       <c r="H3">
-        <v>5.444168272848599</v>
+        <v>4.942014293899256</v>
       </c>
       <c r="I3">
-        <v>7.909026645082706</v>
+        <v>9.157749352730809</v>
       </c>
       <c r="J3">
-        <v>6.066965263482179</v>
+        <v>5.450245258115752</v>
       </c>
       <c r="K3">
-        <v>2.316503146453419</v>
+        <v>2.318514102289813</v>
       </c>
       <c r="L3">
-        <v>3.023031305847849</v>
+        <v>3.519047498437749</v>
       </c>
       <c r="M3">
-        <v>1.799142066511525</v>
+        <v>1.633194523725309</v>
       </c>
       <c r="N3">
-        <v>2.613707334009979</v>
+        <v>3.026374511096025</v>
       </c>
       <c r="O3">
-        <v>2.004958677716189</v>
+        <v>1.801150336514167</v>
       </c>
       <c r="P3">
-        <v>66.5877</v>
+        <v>21.42127</v>
       </c>
       <c r="Q3">
-        <v>77.67893102457538</v>
+        <v>21.81549350692231</v>
       </c>
       <c r="R3">
-        <v>58.39712760148619</v>
+        <v>22.18140453308508</v>
       </c>
       <c r="S3">
-        <v>71.77856656063237</v>
+        <v>21.75541590897071</v>
       </c>
       <c r="T3">
-        <v>61.7915485457794</v>
+        <v>21.0884921570794</v>
       </c>
       <c r="U3">
-        <v>0.1500118897941919</v>
+        <v>0.0003116249060553061</v>
       </c>
       <c r="V3">
-        <v>0.2320934414894545</v>
+        <v>0.0005988936848751952</v>
       </c>
       <c r="W3">
-        <v>0.08109872565350038</v>
+        <v>0.0001115830126249146</v>
       </c>
       <c r="X3">
-        <v>0.190939966969524</v>
+        <v>0.0004444174370155438</v>
       </c>
       <c r="Y3">
-        <v>0.1100477968524974</v>
+        <v>0.0001919706270074806</v>
       </c>
       <c r="Z3">
-        <v>0.7134983274698338</v>
+        <v>0.005840775791599379</v>
       </c>
       <c r="AA3">
-        <v>0.8399103841708246</v>
+        <v>0.0244148039346151</v>
       </c>
       <c r="AB3">
-        <v>0.5697172850482363</v>
+        <v>-0.001226224907518131</v>
       </c>
       <c r="AC3">
-        <v>0.7832794561383294</v>
+        <v>0.01173334968846638</v>
       </c>
       <c r="AD3">
-        <v>0.6361736037872899</v>
+        <v>0.002152987298970851</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4">
-        <v>0.01701794103078184</v>
+        <v>0.01699965198349309</v>
       </c>
       <c r="B4">
-        <v>0.03526810884127579</v>
+        <v>0.05750220459351157</v>
       </c>
       <c r="C4">
-        <v>0.01239027419894241</v>
+        <v>0.0123849809850675</v>
       </c>
       <c r="D4">
-        <v>0.02130360418714743</v>
+        <v>0.03554633954542426</v>
       </c>
       <c r="E4">
-        <v>0.01257385470896549</v>
+        <v>0.01239038710780711</v>
       </c>
       <c r="F4">
-        <v>7.005313972187734</v>
+        <v>7.010429983992433</v>
       </c>
       <c r="G4">
-        <v>9.13790163224083</v>
+        <v>10.59934681939792</v>
       </c>
       <c r="H4">
-        <v>5.442951491446959</v>
+        <v>4.946684926168744</v>
       </c>
       <c r="I4">
-        <v>7.906355842387987</v>
+        <v>9.15247418060995</v>
       </c>
       <c r="J4">
-        <v>6.065218906929141</v>
+        <v>5.445080011013014</v>
       </c>
       <c r="K4">
-        <v>2.313277254017048</v>
+        <v>2.313461201712875</v>
       </c>
       <c r="L4">
-        <v>4.920552872638894</v>
+        <v>8.299343926193336</v>
       </c>
       <c r="M4">
-        <v>1.405113754249177</v>
+        <v>1.254785265671213</v>
       </c>
       <c r="N4">
-        <v>2.939935520861915</v>
+        <v>4.959482372331517</v>
       </c>
       <c r="O4">
-        <v>1.627248895450094</v>
+        <v>1.409968121668831</v>
       </c>
       <c r="P4">
-        <v>82.4241</v>
+        <v>22.08359</v>
       </c>
       <c r="Q4">
-        <v>144.6841370343091</v>
+        <v>41.81357893185004</v>
       </c>
       <c r="R4">
-        <v>24.16237914501038</v>
+        <v>11.91293678190154</v>
       </c>
       <c r="S4">
-        <v>113.0276844046286</v>
+        <v>22.03189198954129</v>
       </c>
       <c r="T4">
-        <v>46.08164946178462</v>
+        <v>21.04700032735019</v>
       </c>
       <c r="U4">
-        <v>0.14004928418125</v>
+        <v>0.01779944381859329</v>
       </c>
       <c r="V4">
-        <v>0.3763973220707094</v>
+        <v>0.1946057149834204</v>
       </c>
       <c r="W4">
-        <v>0.02071984366740855</v>
+        <v>-0.03026248420445864</v>
       </c>
       <c r="X4">
-        <v>0.2375821889325732</v>
+        <v>0.04192666228356365</v>
       </c>
       <c r="Y4">
-        <v>0.06406181656347165</v>
+        <v>0.01834913575500072</v>
       </c>
       <c r="Z4">
-        <v>0.6527219330896635</v>
+        <v>0.09647579510960039</v>
       </c>
       <c r="AA4">
-        <v>0.9558978873509903</v>
+        <v>0.7827146133933682</v>
       </c>
       <c r="AB4">
-        <v>0.350053000334148</v>
+        <v>-0.06547107740728492</v>
       </c>
       <c r="AC4">
-        <v>0.8236617465944587</v>
+        <v>0.2512238475433638</v>
       </c>
       <c r="AD4">
-        <v>0.4741536922226616</v>
+        <v>0.04548131749395036</v>
       </c>
     </row>
   </sheetData>
